--- a/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value3908.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value3908.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>1.699337139278913</v>
+        <v>2.196729183197021</v>
       </c>
       <c r="B1">
-        <v>2.238127640489169</v>
+        <v>3.059962272644043</v>
       </c>
       <c r="C1">
-        <v>3.528023735957577</v>
+        <v>2.623027801513672</v>
       </c>
       <c r="D1">
-        <v>7.441088109723431</v>
+        <v>3.226503610610962</v>
       </c>
       <c r="E1">
-        <v>0.6968687096383263</v>
+        <v>3.700998783111572</v>
       </c>
     </row>
   </sheetData>
